--- a/i_ching_react_app/depreciated-version/json_formatter.xlsx
+++ b/i_ching_react_app/depreciated-version/json_formatter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikk\Documents\Projects\I Ching Reader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikk\Documents\Projects\petprojects\i_ching_react_app\depreciated-version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65676E79-8964-4AB7-8A97-CF55700A5785}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE55899D-0E38-415B-9B61-538DC1AC55F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="2415" windowWidth="25560" windowHeight="12600" xr2:uid="{A3D433F8-447C-4EAB-95C4-14ABF1A84281}"/>
+    <workbookView xWindow="2490" yWindow="780" windowWidth="23940" windowHeight="12600" xr2:uid="{A3D433F8-447C-4EAB-95C4-14ABF1A84281}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="101">
   <si>
     <t>Title</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Line 6</t>
   </si>
   <si>
-    <t>}</t>
-  </si>
-  <si>
     <t>},</t>
   </si>
   <si>
@@ -94,282 +91,278 @@
     <t>JSON FORMAT OUTPUT</t>
   </si>
   <si>
-    <t>,{</t>
-  </si>
-  <si>
-    <t>Lü / Worrying the Tiger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heaven shines down on the Marsh which reflects it back imperfectly:
-Though the Superior Man carefully discriminates between high and low, and acts in accord with the flow of the Tao, there are still situations where a risk must be taken.
-You tread upon the tail of the tiger.
-Not perceiving you as a threat, the startled tiger does not bite.
-Success.
+    <t xml:space="preserve">  if (hexavalue == "VVVVVV") { hexanumber = 1; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (hexavalue == "PPPPPP") { hexanumber = 2; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (hexavalue == "VPVPVP") { hexanumber = 63; }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (hexavalue == "PVPVPV") { hexanumber = 64; }</t>
+  </si>
+  <si>
+    <t>;};</t>
+  </si>
+  <si>
+    <t>Heaven</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Difficult Birth</t>
+  </si>
+  <si>
+    <t>Youthful Folly</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Conflict</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Closeness</t>
+  </si>
+  <si>
+    <t>Slight Restraint</t>
+  </si>
+  <si>
+    <t>Stepping</t>
+  </si>
+  <si>
+    <t>Granduer</t>
+  </si>
+  <si>
+    <t>Obstacle</t>
+  </si>
+  <si>
+    <t>Fellowship</t>
+  </si>
+  <si>
+    <t>Great Measure</t>
+  </si>
+  <si>
+    <t>Humility</t>
+  </si>
+  <si>
+    <t>Elation</t>
+  </si>
+  <si>
+    <t>Following</t>
+  </si>
+  <si>
+    <t>Blight</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Biting</t>
+  </si>
+  <si>
+    <t>Adornment</t>
+  </si>
+  <si>
+    <t>Pulling Apart</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Innocence</t>
+  </si>
+  <si>
+    <t>Great Restraint</t>
+  </si>
+  <si>
+    <t>Nourishment</t>
+  </si>
+  <si>
+    <t>Great Excess</t>
+  </si>
+  <si>
+    <t>The Abyss</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Resonance</t>
+  </si>
+  <si>
+    <t>Endurance</t>
+  </si>
+  <si>
+    <t>Retreat</t>
+  </si>
+  <si>
+    <t>Great Might</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Darkness</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Opposition</t>
+  </si>
+  <si>
+    <t>Adversity</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>Encounter</t>
+  </si>
+  <si>
+    <t>Gathering</t>
+  </si>
+  <si>
+    <t>Ascending</t>
+  </si>
+  <si>
+    <t>Confinement</t>
+  </si>
+  <si>
+    <t>The Well</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>The Cauldron</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Gradual</t>
+  </si>
+  <si>
+    <t>Marrying Maiden</t>
+  </si>
+  <si>
+    <t>Abundance</t>
+  </si>
+  <si>
+    <t>The Wanderer</t>
+  </si>
+  <si>
+    <t>Kneeling</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Disperse</t>
+  </si>
+  <si>
+    <t>Notch</t>
+  </si>
+  <si>
+    <t>Good Faith</t>
+  </si>
+  <si>
+    <t>Slight Excess</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ) { hexatitle = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if (nombre == </t>
+  </si>
+  <si>
+    <t>Copy &amp; Paste I CHING data below:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Dead Sea, its Waters spent eons ago, more deadly than the desert surrounding it:
+The Superior Person will stake his life and fortune on what he deeply believes.
+Triumph belongs to those who endure.
+Trial and tribulation can hone exceptional character to a razor edge that slices deftly through every challenge.
+Action prevails where words will fail.
 SITUATION ANALYSIS:
-You have reached a perilous point in your journey.
-This is a real gamble -- not a maneuver, not a calculated risk.
-The outcome is uncertain.
-If it goes as you hope, you will gain -- but if it turns against you it will cause serious injury, at least to your plans.
-The best tack is extreme caution and a healthy respect for the danger involved. 
-Winds of change high in the Heavens:
-Air currents carry the weather.
-Dense clouds blow in from the West, but still no rain.
-The Superior Person fine tunes the image he presents to the world.
-Small successes.
-SITUATION ANALYSIS:
-No matter what you do, the fruit of your labors never seems to ripen.
-Your reward remains just out of reach.
-Men have gone mad from such anticipation.
-Don't lose your balance lunging for the brass ring.
-While the Fates continue to restrain you, go them one better and display a self-generated restraint and grace.
-Look for the humor in the situation. </t>
-  </si>
-  <si>
-    <t>He treads the simple path of least resistance, making swift and blameless progress.</t>
-  </si>
-  <si>
-    <t>A man of modest independence treads a smooth and level path.
-Good fortune if you stay on course.</t>
-  </si>
-  <si>
-    <t>A one-eyed man may still see, a lame man may still walk, but it takes every resource to circumvent the tiger.
-When this tiger is stepped on he bites.
-Only a warrior supremely loyal to his cause would enter a battle he knows he hasn't the resources to survive.</t>
-  </si>
-  <si>
-    <t>He shows humble hesitation and breathless caution, yet still resolutely takes a necessary step on the tail of the tiger.
-His modest manner saves him from the bite.</t>
-  </si>
-  <si>
-    <t>Though fully aware of the danger that lies on the narrow path ahead, the man is fully commited to move forward.
-The future is uncertain.</t>
-  </si>
-  <si>
-    <t>At your journey's end, look back and examine the path you chose.
-If you find no causes for shame, only good works that make you shine, you may take this as an omen of the certainty of great reward.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  if (hexavalue == "VVVVVV") { hexanumber = 1; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  if (hexavalue == "PPPPPP") { hexanumber = 2; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  if (hexavalue == "VPVPVP") { hexanumber = 63; }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  if (hexavalue == "PVPVPV") { hexanumber = 64; }</t>
-  </si>
-  <si>
-    <t>;};</t>
-  </si>
-  <si>
-    <t>Heaven</t>
-  </si>
-  <si>
-    <t>Earth</t>
-  </si>
-  <si>
-    <t>Difficult Birth</t>
-  </si>
-  <si>
-    <t>Youthful Folly</t>
-  </si>
-  <si>
-    <t>Waiting</t>
-  </si>
-  <si>
-    <t>Conflict</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Closeness</t>
-  </si>
-  <si>
-    <t>Slight Restraint</t>
-  </si>
-  <si>
-    <t>Stepping</t>
-  </si>
-  <si>
-    <t>Granduer</t>
-  </si>
-  <si>
-    <t>Obstacle</t>
-  </si>
-  <si>
-    <t>Fellowship</t>
-  </si>
-  <si>
-    <t>Great Measure</t>
-  </si>
-  <si>
-    <t>Humility</t>
-  </si>
-  <si>
-    <t>Elation</t>
-  </si>
-  <si>
-    <t>Following</t>
-  </si>
-  <si>
-    <t>Blight</t>
-  </si>
-  <si>
-    <t>Approach</t>
-  </si>
-  <si>
-    <t>Observation</t>
-  </si>
-  <si>
-    <t>Biting</t>
-  </si>
-  <si>
-    <t>Adornment</t>
-  </si>
-  <si>
-    <t>Pulling Apart</t>
-  </si>
-  <si>
-    <t>Return</t>
-  </si>
-  <si>
-    <t>Innocence</t>
-  </si>
-  <si>
-    <t>Great Restraint</t>
-  </si>
-  <si>
-    <t>Nourishment</t>
-  </si>
-  <si>
-    <t>Great Excess</t>
-  </si>
-  <si>
-    <t>The Abyss</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Resonance</t>
-  </si>
-  <si>
-    <t>Endurance</t>
-  </si>
-  <si>
-    <t>Retreat</t>
-  </si>
-  <si>
-    <t>Great Might</t>
-  </si>
-  <si>
-    <t>Advance</t>
-  </si>
-  <si>
-    <t>Darkness</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Opposition</t>
-  </si>
-  <si>
-    <t>Adversity</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>Decrease</t>
-  </si>
-  <si>
-    <t>Increase</t>
-  </si>
-  <si>
-    <t>Resolution</t>
-  </si>
-  <si>
-    <t>Encounter</t>
-  </si>
-  <si>
-    <t>Gathering</t>
-  </si>
-  <si>
-    <t>Ascending</t>
-  </si>
-  <si>
-    <t>Confinement</t>
-  </si>
-  <si>
-    <t>The Well</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>The Cauldron</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>Mountain</t>
-  </si>
-  <si>
-    <t>Gradual</t>
-  </si>
-  <si>
-    <t>Marrying Maiden</t>
-  </si>
-  <si>
-    <t>Abundance</t>
-  </si>
-  <si>
-    <t>The Wanderer</t>
-  </si>
-  <si>
-    <t>Kneeling</t>
-  </si>
-  <si>
-    <t>Joy</t>
-  </si>
-  <si>
-    <t>Disperse</t>
-  </si>
-  <si>
-    <t>Notch</t>
-  </si>
-  <si>
-    <t>Good Faith</t>
-  </si>
-  <si>
-    <t>Slight Excess</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ) { hexatitle = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">if (nombre == </t>
-  </si>
-  <si>
-    <t>Copy &amp; Paste I CHING data below:</t>
+This is the realm of the Shaman.
+You have exhausted every alternative, spent yourself completely, taxed body and mind beyond your former limits.
+Survival and salvation lie beyond your reach now.
+Only transcendence to a new existence -- a higher plane of being -- will see you through.
+The Old You is just a dry husk.
+You can't return to it.
+Metamorphosis is the only grace offered.
+You can only return to your homeland as a New You. </t>
+  </si>
+  <si>
+    <t>He rests beneath a dead tree, trying to make sense of this dark, desolate valley he has strayed into.
+These lost wanderings will last three years.</t>
+  </si>
+  <si>
+    <t>Chained to the banquet table, a prisoner of his own rich tastes.
+He offers prayer and sacrifice for delivery from desire.
+When even the desire to be delivered has been cleansed, his prayers will have been answered.</t>
+  </si>
+  <si>
+    <t>Hemmed in by stone, with nothing to climb but thorns: a trap of his own making.
+Struggling home, he cannot find his wife.
+Misfortune.</t>
+  </si>
+  <si>
+    <t>Captive and on display in a golden carriage, he is ashamed of the spectacle he has become.
+Such regrets will lead to good fortune.</t>
+  </si>
+  <si>
+    <t>Though his nose and feet will surely be cut off, still he must confront the warlord.
+He calmly accepts his fate, and offers prayer and sacrifice.</t>
+  </si>
+  <si>
+    <t>He feels tightly bound by no more than a few vines of ivy.
+If he firmly resolves to break free, he will find he was held back by only his own guilt and fear.</t>
+  </si>
+  <si>
+    <t>Ching / The Well</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +383,22 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -418,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -445,6 +454,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396889FD-F474-4A45-A9B5-A7D9618E0927}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -770,7 +783,7 @@
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="3.5703125" customWidth="1"/>
     <col min="3" max="3" width="0.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
     <col min="5" max="5" width="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="1" customWidth="1"/>
@@ -790,7 +803,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -867,192 +880,230 @@
     </row>
     <row r="4" spans="1:23" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>9</v>
+      <c r="K5" s="6"/>
+      <c r="S5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="S6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H9" t="str">
+      <c r="J8" s="11" t="str">
         <f>CONCATENATE(CHAR(34),A4,CHAR(34),":")</f>
         <v>"id":</v>
       </c>
-      <c r="I9" t="str">
+      <c r="K8" s="11" t="str">
         <f>CONCATENATE(B4,",")</f>
-        <v>10,</v>
-      </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H10" t="str">
+        <v>0,</v>
+      </c>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
         <f>CONCATENATE(CHAR(34),C4,CHAR(34),":")</f>
         <v>"name":</v>
       </c>
-      <c r="I10" t="str">
+      <c r="K9" t="str">
         <f>CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(D4,CHAR(10)," "),"'","'"),CHAR(34),",")</f>
-        <v>"Lü / Worrying the Tiger",</v>
-      </c>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H11" t="str">
+        <v>"Ching / The Well",</v>
+      </c>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
         <f>CONCATENATE(CHAR(34),E4,CHAR(34),":")</f>
         <v>"description":</v>
       </c>
-      <c r="I11" t="str">
-        <f>CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(F4,CHAR(10)," "),"'","'"),CHAR(34),",")</f>
-        <v>"Heaven shines down on the Marsh which reflects it back imperfectly: Though the Superior Man carefully discriminates between high and low, and acts in accord with the flow of the Tao, there are still situations where a risk must be taken.  You tread upon the tail of the tiger. Not perceiving you as a threat, the startled tiger does not bite. Success.  SITUATION ANALYSIS: You have reached a perilous point in your journey. This is a real gamble -- not a maneuver, not a calculated risk. The outcome is uncertain. If it goes as you hope, you will gain -- but if it turns against you it will cause serious injury, at least to your plans. The best tack is extreme caution and a healthy respect for the danger involved.  Winds of change high in the Heavens: Air currents carry the weather. Dense clouds blow in from the West, but still no rain. The Superior Person fine tunes the image he presents to the world.  Small successes.  SITUATION ANALYSIS: No matter what you do, the fruit of your labors never seems to ripen. Your reward remains just out of reach. Men have gone mad from such anticipation. Don't lose your balance lunging for the brass ring. While the Fates continue to restrain you, go them one better and display a self-generated restraint and grace. Look for the humor in the situation. ",</v>
-      </c>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" t="str">
+      <c r="K10" t="str">
+        <f>IF(LEFT(F4,1)=CHAR(10),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(RIGHT(F4,LEN(F4)-1),CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F4,CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","))</f>
+        <v>"A Dead Sea, its Waters spent eons ago, more deadly than the desert surrounding it:&lt;br&gt;The Superior Person will stake his life and fortune on what he deeply believes.&lt;br&gt;&lt;br&gt;Triumph belongs to those who endure.&lt;br&gt;Trial and tribulation can hone exceptional character to a razor edge that slices deftly through every challenge.&lt;br&gt;Action prevails where words will fail.&lt;br&gt;&lt;br&gt;&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;&lt;br&gt;This is the realm of the Shaman.&lt;br&gt;You have exhausted every alternative, spent yourself completely, taxed body and mind beyond your former limits.&lt;br&gt;Survival and salvation lie beyond your reach now.&lt;br&gt;Only transcendence to a new existence -- a higher plane of being -- will see you through.&lt;br&gt;The Old You is just a dry husk.&lt;br&gt;You can't return to it.&lt;br&gt;Metamorphosis is the only grace offered.&lt;br&gt;You can only return to your homeland as a New You. ",</v>
+      </c>
+      <c r="S10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
         <f>CONCATENATE(CHAR(34),G4,CHAR(34),":")</f>
         <v>"line_one":</v>
       </c>
-      <c r="I12" t="str">
-        <f>CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(H4,CHAR(10)," "),"'","'"),CHAR(34),",")</f>
-        <v>"He treads the simple path of least resistance, making swift and blameless progress.",</v>
-      </c>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" t="str">
+      <c r="K11" t="str">
+        <f>IF(LEFT(H4,1)=CHAR(10),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(RIGHT(H4,LEN(H4)-1),CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(H4,CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","))</f>
+        <v>"He rests beneath a dead tree, trying to make sense of this dark, desolate valley he has strayed into.&lt;br&gt;These lost wanderings will last three years.",</v>
+      </c>
+      <c r="S11" t="s">
+        <v>91</v>
+      </c>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
         <f>CONCATENATE(CHAR(34),I4,CHAR(34),":")</f>
         <v>"line_two":</v>
       </c>
-      <c r="I13" t="str">
-        <f>CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(J4,CHAR(10)," "),"'","'"),CHAR(34),",")</f>
-        <v>"A man of modest independence treads a smooth and level path. Good fortune if you stay on course.",</v>
-      </c>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" t="str">
+      <c r="K12" t="str">
+        <f>IF(LEFT(J4,1)=CHAR(10),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(RIGHT(J4,LEN(J4)-1),CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(J4,CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","))</f>
+        <v>"Chained to the banquet table, a prisoner of his own rich tastes.&lt;br&gt;&lt;br&gt;He offers prayer and sacrifice for delivery from desire.&lt;br&gt;When even the desire to be delivered has been cleansed, his prayers will have been answered.",</v>
+      </c>
+      <c r="S12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
         <f>CONCATENATE(CHAR(34),K4,CHAR(34),":")</f>
         <v>"line_three":</v>
       </c>
-      <c r="I14" t="str">
-        <f>CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(L4,CHAR(10)," "),"'","'"),CHAR(34),",")</f>
-        <v>"A one-eyed man may still see, a lame man may still walk, but it takes every resource to circumvent the tiger. When this tiger is stepped on he bites. Only a warrior supremely loyal to his cause would enter a battle he knows he hasn't the resources to survive.",</v>
-      </c>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H15" t="str">
+      <c r="K13" t="str">
+        <f>IF(LEFT(L4,1)=CHAR(10),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(RIGHT(L4,LEN(L4)-1),CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L4,CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","))</f>
+        <v>"Hemmed in by stone, with nothing to climb but thorns: a trap of his own making.&lt;br&gt;Struggling home, he cannot find his wife.&lt;br&gt;Misfortune.",</v>
+      </c>
+      <c r="S13" t="s">
+        <v>91</v>
+      </c>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
         <f>CONCATENATE(CHAR(34),M4,CHAR(34),":")</f>
         <v>"line_four":</v>
       </c>
-      <c r="I15" t="str">
-        <f>CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(N4,CHAR(10)," "),"'","'"),CHAR(34),",")</f>
-        <v>"He shows humble hesitation and breathless caution, yet still resolutely takes a necessary step on the tail of the tiger. His modest manner saves him from the bite.",</v>
-      </c>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H16" t="str">
+      <c r="K14" t="str">
+        <f>IF(LEFT(N4,1)=CHAR(10),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(RIGHT(N4,LEN(N4)-1),CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(N4,CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","))</f>
+        <v>"Captive and on display in a golden carriage, he is ashamed of the spectacle he has become.&lt;br&gt;Such regrets will lead to good fortune.",</v>
+      </c>
+      <c r="S14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
         <f>CONCATENATE(CHAR(34),O4,CHAR(34),":")</f>
         <v>"line_five":</v>
       </c>
-      <c r="I16" t="str">
-        <f>CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(P4,CHAR(10)," "),"'","'"),CHAR(34),",")</f>
-        <v>"Though fully aware of the danger that lies on the narrow path ahead, the man is fully commited to move forward. The future is uncertain.",</v>
-      </c>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" t="str">
+      <c r="K15" t="str">
+        <f>IF(LEFT(P4,1)=CHAR(10),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(RIGHT(P4,LEN(P4)-1),CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(P4,CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","))</f>
+        <v>"Though his nose and feet will surely be cut off, still he must confront the warlord.&lt;br&gt;He calmly accepts his fate, and offers prayer and sacrifice.",</v>
+      </c>
+      <c r="S15" t="s">
+        <v>91</v>
+      </c>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
         <f>CONCATENATE(CHAR(34),Q4,CHAR(34),":")</f>
         <v>"line_six":</v>
       </c>
-      <c r="I17" t="str">
-        <f>CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(R4,CHAR(10)," "),"'","'"),CHAR(34),)</f>
-        <v>"At your journey's end, look back and examine the path you chose. If you find no causes for shame, only good works that make you shine, you may take this as an omen of the certainty of great reward."</v>
+      <c r="K16" t="str">
+        <f>IF(LEFT(R4,1)=CHAR(10),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(RIGHT(R4,LEN(R4)-1),CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","),
+CONCATENATE(CHAR(34),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(R4,CHAR(10),"&lt;br&gt;"),"'","'"),"SITUATION ANALYSIS:","&lt;span&gt;SITUATION ANALYSIS&lt;/span&gt;"),CHAR(34),","))</f>
+        <v>"He feels tightly bound by no more than a few vines of ivy.&lt;br&gt;If he firmly resolves to break free, he will find he was held back by only his own guilt and fear.",</v>
+      </c>
+      <c r="S16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="10:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>8</v>
       </c>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H18" t="s">
-        <v>8</v>
-      </c>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="10:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="10:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="10:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W21" s="1"/>
     </row>
-    <row r="22" spans="8:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="10:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T22" s="1"/>
     </row>
   </sheetData>
@@ -1084,22 +1135,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F1" s="7">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J1" t="str">
         <f>CONCATENATE(E1,F1,G1,CHAR(34),H1,CHAR(34),I1)</f>
@@ -1108,7 +1159,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2" t="str">
         <f>E1</f>
@@ -1123,10 +1174,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J64" si="0">CONCATENATE(E2,F2,G2,CHAR(34),H2,CHAR(34),I2)</f>
@@ -1135,14 +1186,14 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E64" si="1">E2</f>
         <v xml:space="preserve">if (nombre == </v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:H64" si="2">F2+1</f>
+        <f t="shared" ref="F3:F64" si="2">F2+1</f>
         <v>3</v>
       </c>
       <c r="G3" t="str">
@@ -1150,10 +1201,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J3" t="str">
         <f t="shared" si="0"/>
@@ -1162,7 +1213,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="1"/>
@@ -1177,10 +1228,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
@@ -1201,10 +1252,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
@@ -1225,10 +1276,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
@@ -1249,10 +1300,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
@@ -1273,10 +1324,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
@@ -1297,10 +1348,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
@@ -1321,10 +1372,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
@@ -1345,10 +1396,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
@@ -1369,10 +1420,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
@@ -1393,10 +1444,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
@@ -1417,10 +1468,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
@@ -1441,10 +1492,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
@@ -1465,10 +1516,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
@@ -1489,10 +1540,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
@@ -1513,10 +1564,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
@@ -1537,10 +1588,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
@@ -1561,10 +1612,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H20" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
@@ -1585,10 +1636,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
@@ -1609,10 +1660,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
@@ -1633,10 +1684,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
@@ -1657,10 +1708,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
@@ -1681,10 +1732,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
@@ -1705,10 +1756,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
@@ -1729,10 +1780,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
@@ -1753,10 +1804,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
@@ -1777,10 +1828,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
@@ -1801,10 +1852,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
@@ -1825,10 +1876,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H31" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
@@ -1849,10 +1900,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
@@ -1873,10 +1924,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
@@ -1897,10 +1948,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H34" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
@@ -1921,10 +1972,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I35" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
@@ -1945,10 +1996,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I36" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
@@ -1969,10 +2020,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
@@ -1993,10 +2044,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
@@ -2017,10 +2068,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I39" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
@@ -2041,10 +2092,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I40" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
@@ -2065,10 +2116,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H41" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
@@ -2089,10 +2140,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H42" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I42" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
@@ -2113,10 +2164,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H43" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I43" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="0"/>
@@ -2137,10 +2188,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I44" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="0"/>
@@ -2161,10 +2212,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I45" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="0"/>
@@ -2185,10 +2236,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I46" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J46" t="str">
         <f t="shared" si="0"/>
@@ -2209,10 +2260,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J47" t="str">
         <f t="shared" si="0"/>
@@ -2233,10 +2284,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I48" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J48" t="str">
         <f t="shared" si="0"/>
@@ -2257,10 +2308,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I49" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="0"/>
@@ -2281,10 +2332,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H50" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I50" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="0"/>
@@ -2305,10 +2356,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="0"/>
@@ -2329,10 +2380,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="0"/>
@@ -2353,10 +2404,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H53" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
@@ -2377,10 +2428,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H54" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="0"/>
@@ -2401,10 +2452,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H55" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="0"/>
@@ -2425,10 +2476,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H56" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="0"/>
@@ -2449,10 +2500,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H57" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="0"/>
@@ -2473,10 +2524,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H58" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="0"/>
@@ -2497,10 +2548,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H59" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="0"/>
@@ -2521,10 +2572,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H60" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
@@ -2545,10 +2596,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H61" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J61" t="str">
         <f t="shared" si="0"/>
@@ -2569,10 +2620,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H62" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I62" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
@@ -2593,10 +2644,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H63" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I63" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
@@ -2617,10 +2668,10 @@
         <v xml:space="preserve"> ) { hexatitle = </v>
       </c>
       <c r="H64" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I64" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
